--- a/biology/Zoologie/Caminus/Caminus.xlsx
+++ b/biology/Zoologie/Caminus/Caminus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caminus est un genre d'éponges marines de la famille des Geodiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (8 mai 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (8 mai 2024) :
 Caminus albus Pulitzer-Finali, 1996
 Caminus awashimensis Tanita, 1969
 Caminus carmabi Van Soest, Meesters &amp; Becking, 2014
@@ -551,13 +565,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Caminus est décrit par Eduard Oscar Schmidt en 1862[1].
-Caminus a pour synonyme[1] :
-Geodistrongyla Hoshino, 1981
-Publication originale
-(de) O. Schmidt, Die Spongien des adriatischen Meeres, Leipzig, Wilhelm Engelmann, 1862, 88 p..</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Caminus est décrit par Eduard Oscar Schmidt en 1862.
+Caminus a pour synonyme :
+Geodistrongyla Hoshino, 1981</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caminus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caminus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(de) O. Schmidt, Die Spongien des adriatischen Meeres, Leipzig, Wilhelm Engelmann, 1862, 88 p..</t>
         </is>
       </c>
     </row>
